--- a/Appendices/Gantt.xlsx
+++ b/Appendices/Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chris\Thesis-latex\Appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DECBBEB-43BA-429D-A8DB-BA3D24A83425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B70B3-F6AD-494E-838E-9C394D96271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9E802F3-974B-4DF5-824A-14CE13CE94DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9E802F3-974B-4DF5-824A-14CE13CE94DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Week 5</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Week 9</t>
   </si>
   <si>
-    <t>Research Phase Gantt Chart</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -84,56 +81,138 @@
     <t>NDA signed and triliplicate by 3 parties</t>
   </si>
   <si>
-    <t>Research Report (Draft)</t>
-  </si>
-  <si>
-    <t>Interview with Stakeholders</t>
-  </si>
-  <si>
-    <t>Studying the QaaS app</t>
-  </si>
-  <si>
-    <t>Conducting research</t>
-  </si>
-  <si>
     <t>Working Weeks</t>
   </si>
   <si>
-    <t>Studying and reading the documentations of 5 internal APIs</t>
-  </si>
-  <si>
-    <t>Creating SRS/FO/PRS document</t>
-  </si>
-  <si>
     <t>Graduation Project Notification Form</t>
   </si>
   <si>
     <t>Studying and reading the SentinelOne API documentation</t>
   </si>
   <si>
-    <t>Configuring out what was causing the error in SnelStart API call</t>
-  </si>
-  <si>
-    <t>Realization Phase Gantt Chart</t>
-  </si>
-  <si>
     <t>Research Report (final draft)</t>
+  </si>
+  <si>
+    <t>Studying and reading the documentations of N-Central for API monitoring</t>
+  </si>
+  <si>
+    <t>Studying and reading the documentations of Pax8 for API monitoring</t>
+  </si>
+  <si>
+    <t>Studying and reading the documentations of Bodyguard for API monitoring</t>
+  </si>
+  <si>
+    <t>Studying and reading the documentations of  for API monitoring</t>
+  </si>
+  <si>
+    <t>Setting up LaTeX environment for document editing</t>
+  </si>
+  <si>
+    <t>Studying the QaaS app front-end (Flutter code)</t>
+  </si>
+  <si>
+    <t>Research Phase Gantt Chart (26/February/2024 - 29/April/2024)</t>
+  </si>
+  <si>
+    <t>Initial meeting with the School Lecturer to determine Requirement Analysis</t>
+  </si>
+  <si>
+    <t>School Lecturer Visit</t>
+  </si>
+  <si>
+    <t>Research Report excluding Realization, Conclusions &amp; Recommendations, and Evaluation chapters</t>
+  </si>
+  <si>
+    <t>Interview with Company Supervisor, Stakeholders, Owner and Cybersecurity Consultant to determine requirements</t>
+  </si>
+  <si>
+    <t>Making SRS, FO, PRS, with Class Diagram, Sequence Diagram, Use Case Diagram, Activity Diagram (optional)</t>
+  </si>
+  <si>
+    <t>Set up Azure DevOps environment (developers and stakeholders account) &amp; GCP Firebase E-mail Account</t>
+  </si>
+  <si>
+    <t>Monthly Report</t>
+  </si>
+  <si>
+    <t>Sprint Review for Company Supervisor</t>
+  </si>
+  <si>
+    <t>Studying the back-end code (Node.js server, Firebase console, cloud functions, and other services utilized)</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Research Report (initial draft)</t>
+  </si>
+  <si>
+    <t>Determine Definition of Done with Company Supervisor</t>
+  </si>
+  <si>
+    <t>Realization Phase Gantt Chart (29/April/224 - 8/July/2024)</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Daily Stand-ups</t>
+  </si>
+  <si>
+    <t>Sprint Restrospective</t>
+  </si>
+  <si>
+    <t>Sprint Review document for Company Supervisor</t>
+  </si>
+  <si>
+    <t>Setting up the SCRUM board in Azure DevOps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine Story Points </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Review </t>
+  </si>
+  <si>
+    <t>Research Report check with Company Supervisor</t>
+  </si>
+  <si>
+    <t>Updating Research Report and filling out the missing chapters</t>
+  </si>
+  <si>
+    <t>Code in the front-end client-side Flutter test environment</t>
+  </si>
+  <si>
+    <t>Code in the back-end server-side Node.js and Firebase cloud environment</t>
+  </si>
+  <si>
+    <t>Bugs finding and fixing</t>
+  </si>
+  <si>
+    <t>Deploy the final product in Firebase hosting</t>
+  </si>
+  <si>
+    <t>Finalizing the final product</t>
+  </si>
+  <si>
+    <t>Create Product Backlogs</t>
+  </si>
+  <si>
+    <t>Create Burndown Charts</t>
+  </si>
+  <si>
+    <t>Create Sprints</t>
+  </si>
+  <si>
+    <t>End-presentation (colloquium)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -154,8 +233,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +262,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -385,67 +484,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -758,314 +893,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF4521C-49BF-4111-9289-DB4D88844039}">
-  <dimension ref="B1:AB27"/>
+  <dimension ref="B1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.5546875" customWidth="1"/>
-    <col min="3" max="3" width="3.5546875" customWidth="1"/>
-    <col min="4" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="3.5546875" customWidth="1"/>
-    <col min="11" max="11" width="3.88671875" customWidth="1"/>
-    <col min="12" max="12" width="3.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
-    <col min="16" max="25" width="3.6640625" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="16" max="25" width="3.7109375" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:28" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25"/>
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="14"/>
-    </row>
-    <row r="3" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="23"/>
-      <c r="C3" s="18" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="4" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="25"/>
-      <c r="C4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="14"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="13"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="U5" s="14"/>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="17"/>
-      <c r="L6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="U6" s="14"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="L7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="U7" s="14"/>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="L8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="L9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="L10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="U10" s="14"/>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="U11" s="14"/>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="U12" s="14"/>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="U13" s="14"/>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="L14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="U14" s="14"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="U15" s="14"/>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="U16" s="14"/>
-      <c r="AB16" s="13"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="U17" s="14"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="L18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="L19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="U19" s="14"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="L20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="U20" s="14"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="L21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="U21" s="14"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="L22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="U22" s="14"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="L23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="U23" s="14"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="L24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16" t="s">
-        <v>15</v>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="21"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1076,19 +1297,17 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="13"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="13"/>
       <c r="P26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="23"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="Q27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1105,326 +1324,428 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1989882A-7346-4881-9121-4B9C6D49F378}">
-  <dimension ref="B1:U26"/>
+  <dimension ref="B1:U27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.5546875" customWidth="1"/>
-    <col min="18" max="18" width="5.21875" customWidth="1"/>
-    <col min="19" max="19" width="5.44140625" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="23"/>
-      <c r="C3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="28"/>
+      <c r="M4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="20" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="20"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="13"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="U5" s="14"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="17"/>
-      <c r="L6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="U6" s="14"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="L7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="U7" s="14"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="L8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="L9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="L10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="U11" s="14"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="U12" s="14"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="U13" s="14"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="U14" s="14"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="U15" s="14"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="U16" s="14"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="L17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="U17" s="14"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="L18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="L19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="U19" s="14"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="L20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="U20" s="14"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="L21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="L22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="U22" s="14"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="L23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="U23" s="14"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="L24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16" t="s">
-        <v>26</v>
+      <c r="S25" s="9"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1442,8 +1763,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="3"/>
+      <c r="T26" s="23"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1461,6 +1784,7 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1742,16 +2066,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A81E57C4-EDC6-4076-9931-BEBFD01664E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0a353e7c-b3c5-4a8d-af98-6db66d5fe763"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="5f0025be-a4fa-4dfa-bdcc-9dc1863c0b1b"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0a353e7c-b3c5-4a8d-af98-6db66d5fe763"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
